--- a/大二下/统计机器学习/实验/统计机器学习实验三资料/北京市空气质量数据test.xlsx
+++ b/大二下/统计机器学习/实验/统计机器学习实验三资料/北京市空气质量数据test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D018C8796C7DB01526BE5C41AE1B4E49E69D5AB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E91C60E-38C3-41B3-A842-06C281F824EE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -57,54 +56,12 @@
   <si>
     <t>重度污染</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>重度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>污染</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>污染</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,24 +108,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,9 +153,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -237,7 +173,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,23 +248,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -364,23 +283,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,19 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="4">
         <v>43366</v>
       </c>
@@ -620,7 +522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="4">
         <v>43367</v>
       </c>
@@ -646,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="4">
         <v>43368</v>
       </c>
@@ -672,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="4">
         <v>43369</v>
       </c>
@@ -698,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="4">
         <v>43370</v>
       </c>
@@ -724,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="4">
         <v>43371</v>
       </c>
@@ -750,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="4">
         <v>43372</v>
       </c>
@@ -776,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4">
         <v>43373</v>
       </c>
@@ -802,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="4">
         <v>43374</v>
       </c>
@@ -828,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.25">
       <c r="A11" s="4">
         <v>43375</v>
       </c>
@@ -854,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="4">
         <v>43376</v>
       </c>
@@ -880,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="4">
         <v>43377</v>
       </c>
@@ -906,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.25">
       <c r="A14" s="4">
         <v>43378</v>
       </c>
@@ -932,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.25">
       <c r="A15" s="4">
         <v>43379</v>
       </c>
@@ -958,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="4">
         <v>43380</v>
       </c>
@@ -984,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.25">
       <c r="A17" s="4">
         <v>43381</v>
       </c>
@@ -1010,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="4">
         <v>43382</v>
       </c>
@@ -1036,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="4">
         <v>43383</v>
       </c>
@@ -1062,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25">
       <c r="A20" s="4">
         <v>43384</v>
       </c>
@@ -1088,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.25">
       <c r="A21" s="4">
         <v>43385</v>
       </c>
@@ -1114,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.25">
       <c r="A22" s="4">
         <v>43386</v>
       </c>
@@ -1140,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25">
       <c r="A23" s="4">
         <v>43387</v>
       </c>
@@ -1166,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25">
       <c r="A24" s="4">
         <v>43388</v>
       </c>
@@ -1192,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25">
       <c r="A25" s="4">
         <v>43389</v>
       </c>
@@ -1218,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="4">
         <v>43390</v>
       </c>
@@ -1244,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25">
       <c r="A27" s="4">
         <v>43391</v>
       </c>
@@ -1270,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25">
       <c r="A28" s="4">
         <v>43392</v>
       </c>
@@ -1296,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25">
       <c r="A29" s="4">
         <v>43393</v>
       </c>
@@ -1322,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25">
       <c r="A30" s="4">
         <v>43394</v>
       </c>
@@ -1348,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.25">
       <c r="A31" s="4">
         <v>43395</v>
       </c>
@@ -1374,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.25">
       <c r="A32" s="4">
         <v>43396</v>
       </c>
@@ -1400,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="4">
         <v>43397</v>
       </c>
@@ -1426,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="4">
         <v>43398</v>
       </c>
@@ -1452,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="4">
         <v>43399</v>
       </c>
@@ -1478,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="4">
         <v>43400</v>
       </c>
@@ -1504,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="4">
         <v>43401</v>
       </c>
@@ -1530,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="4">
         <v>43402</v>
       </c>
@@ -1556,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="4">
         <v>43403</v>
       </c>
@@ -1582,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="4">
         <v>43404</v>
       </c>
@@ -1608,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="4">
         <v>43405</v>
       </c>
@@ -1634,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="4">
         <v>43406</v>
       </c>
@@ -1660,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="4">
         <v>43407</v>
       </c>
@@ -1686,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="4">
         <v>43408</v>
       </c>
@@ -1712,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="4">
         <v>43409</v>
       </c>
@@ -1738,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="4">
         <v>43410</v>
       </c>
@@ -1764,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="4">
         <v>43411</v>
       </c>
@@ -1790,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="4">
         <v>43412</v>
       </c>
@@ -1816,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" s="4">
         <v>43413</v>
       </c>
@@ -1842,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" s="4">
         <v>43414</v>
       </c>
@@ -1868,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.25">
       <c r="A51" s="4">
         <v>43415</v>
       </c>
@@ -1894,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.25">
       <c r="A52" s="4">
         <v>43416</v>
       </c>
@@ -1920,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" s="4">
         <v>43417</v>
       </c>
@@ -1946,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="4">
         <v>43418</v>
       </c>
@@ -1972,7 +1874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.25">
       <c r="A55" s="4">
         <v>43419</v>
       </c>
@@ -1998,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.25">
       <c r="A56" s="4">
         <v>43420</v>
       </c>
@@ -2024,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" s="4">
         <v>43421</v>
       </c>
@@ -2050,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" s="4">
         <v>43422</v>
       </c>
@@ -2076,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" s="4">
         <v>43423</v>
       </c>
@@ -2102,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" s="4">
         <v>43424</v>
       </c>
@@ -2128,7 +2030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.25">
       <c r="A61" s="4">
         <v>43425</v>
       </c>
@@ -2154,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.25">
       <c r="A62" s="4">
         <v>43426</v>
       </c>
@@ -2180,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.25">
       <c r="A63" s="4">
         <v>43427</v>
       </c>
@@ -2206,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.25">
       <c r="A64" s="4">
         <v>43428</v>
       </c>
@@ -2232,7 +2134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.25">
       <c r="A65" s="4">
         <v>43429</v>
       </c>
@@ -2258,7 +2160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.25">
       <c r="A66" s="4">
         <v>43430</v>
       </c>
@@ -2280,11 +2182,11 @@
       <c r="G66" s="5">
         <v>15</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.25">
       <c r="A67" s="4">
         <v>43431</v>
       </c>
@@ -2310,7 +2212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.25">
       <c r="A68" s="4">
         <v>43432</v>
       </c>
@@ -2336,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.25">
       <c r="A69" s="4">
         <v>43433</v>
       </c>
@@ -2362,7 +2264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.25">
       <c r="A70" s="4">
         <v>43434</v>
       </c>
@@ -2388,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14.25">
       <c r="A71" s="4">
         <v>43435</v>
       </c>
@@ -2414,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.25">
       <c r="A72" s="4">
         <v>43436</v>
       </c>
@@ -2440,7 +2342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.25">
       <c r="A73" s="4">
         <v>43437</v>
       </c>
@@ -2466,7 +2368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.25">
       <c r="A74" s="4">
         <v>43438</v>
       </c>
@@ -2492,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.25">
       <c r="A75" s="4">
         <v>43439</v>
       </c>
@@ -2518,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.25">
       <c r="A76" s="4">
         <v>43440</v>
       </c>
@@ -2544,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.25">
       <c r="A77" s="4">
         <v>43441</v>
       </c>
@@ -2570,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.25">
       <c r="A78" s="4">
         <v>43442</v>
       </c>
@@ -2596,7 +2498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.25">
       <c r="A79" s="4">
         <v>43443</v>
       </c>
@@ -2622,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.25">
       <c r="A80" s="4">
         <v>43444</v>
       </c>
@@ -2648,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.25">
       <c r="A81" s="4">
         <v>43445</v>
       </c>
@@ -2674,7 +2576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.25">
       <c r="A82" s="4">
         <v>43446</v>
       </c>
@@ -2700,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.25">
       <c r="A83" s="4">
         <v>43447</v>
       </c>
@@ -2726,7 +2628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.25">
       <c r="A84" s="4">
         <v>43448</v>
       </c>
@@ -2752,7 +2654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14.25">
       <c r="A85" s="4">
         <v>43449</v>
       </c>
@@ -2778,7 +2680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.25">
       <c r="A86" s="4">
         <v>43450</v>
       </c>
@@ -2804,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.25">
       <c r="A87" s="4">
         <v>43451</v>
       </c>
@@ -2830,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.25">
       <c r="A88" s="4">
         <v>43452</v>
       </c>
@@ -2856,7 +2758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.25">
       <c r="A89" s="4">
         <v>43453</v>
       </c>
@@ -2882,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.25">
       <c r="A90" s="4">
         <v>43454</v>
       </c>
@@ -2908,7 +2810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.25">
       <c r="A91" s="4">
         <v>43455</v>
       </c>
@@ -2934,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.25">
       <c r="A92" s="4">
         <v>43456</v>
       </c>
@@ -2960,7 +2862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.25">
       <c r="A93" s="4">
         <v>43457</v>
       </c>
@@ -2986,7 +2888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.25">
       <c r="A94" s="4">
         <v>43458</v>
       </c>
@@ -3012,7 +2914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.25">
       <c r="A95" s="4">
         <v>43459</v>
       </c>
@@ -3038,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.25">
       <c r="A96" s="4">
         <v>43460</v>
       </c>
@@ -3064,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.25">
       <c r="A97" s="4">
         <v>43461</v>
       </c>
@@ -3090,7 +2992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.25">
       <c r="A98" s="4">
         <v>43462</v>
       </c>
@@ -3116,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.25">
       <c r="A99" s="4">
         <v>43463</v>
       </c>
@@ -3142,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.25">
       <c r="A100" s="4">
         <v>43464</v>
       </c>
@@ -3168,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.25">
       <c r="A101" s="4">
         <v>43465</v>
       </c>
@@ -3194,7 +3096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.25">
       <c r="A102" s="4">
         <v>43466</v>
       </c>
@@ -3220,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.25">
       <c r="A103" s="4">
         <v>43467</v>
       </c>
@@ -3246,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.25">
       <c r="A104" s="4">
         <v>43468</v>
       </c>
@@ -3268,11 +3170,11 @@
       <c r="G104" s="5">
         <v>12</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.25">
       <c r="A105" s="4">
         <v>43469</v>
       </c>
@@ -3298,7 +3200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.25">
       <c r="A106" s="4">
         <v>43470</v>
       </c>
@@ -3324,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.25">
       <c r="A107" s="4">
         <v>43471</v>
       </c>
@@ -3350,7 +3252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.25">
       <c r="A108" s="4">
         <v>43472</v>
       </c>
@@ -3376,7 +3278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.25">
       <c r="A109" s="4">
         <v>43473</v>
       </c>
@@ -3402,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.25">
       <c r="A110" s="4">
         <v>43474</v>
       </c>
@@ -3428,7 +3330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14.25">
       <c r="A111" s="4">
         <v>43475</v>
       </c>
@@ -3454,7 +3356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.25">
       <c r="A112" s="4">
         <v>43476</v>
       </c>
@@ -3480,7 +3382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.25">
       <c r="A113" s="4">
         <v>43477</v>
       </c>
@@ -3506,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.25">
       <c r="A114" s="4">
         <v>43478</v>
       </c>
@@ -3532,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.25">
       <c r="A115" s="4">
         <v>43479</v>
       </c>
@@ -3558,7 +3460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.25">
       <c r="A116" s="4">
         <v>43480</v>
       </c>
@@ -3584,7 +3486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.25">
       <c r="A117" s="4">
         <v>43481</v>
       </c>
@@ -3610,7 +3512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.25">
       <c r="A118" s="4">
         <v>43482</v>
       </c>
@@ -3636,7 +3538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.25">
       <c r="A119" s="4">
         <v>43483</v>
       </c>
@@ -3662,7 +3564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.25">
       <c r="A120" s="4">
         <v>43484</v>
       </c>
@@ -3688,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.25">
       <c r="A121" s="4">
         <v>43485</v>
       </c>
@@ -3714,7 +3616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.25">
       <c r="A122" s="4">
         <v>43486</v>
       </c>
@@ -3740,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.25">
       <c r="A123" s="4">
         <v>43487</v>
       </c>
@@ -3766,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.25">
       <c r="A124" s="4">
         <v>43488</v>
       </c>
@@ -3792,7 +3694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.25">
       <c r="A125" s="4">
         <v>43489</v>
       </c>
@@ -3818,7 +3720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.25">
       <c r="A126" s="4">
         <v>43490</v>
       </c>
@@ -3844,7 +3746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.25">
       <c r="A127" s="4">
         <v>43491</v>
       </c>
@@ -3870,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.25">
       <c r="A128" s="4">
         <v>43492</v>
       </c>
@@ -3896,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.25">
       <c r="A129" s="4">
         <v>43493</v>
       </c>
@@ -3922,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.25">
       <c r="A130" s="4">
         <v>43494</v>
       </c>
@@ -3948,7 +3850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.25">
       <c r="A131" s="4">
         <v>43495</v>
       </c>
@@ -3974,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.25">
       <c r="A132" s="4">
         <v>43496</v>
       </c>
@@ -4000,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.25">
       <c r="A133" s="4">
         <v>43497</v>
       </c>
@@ -4026,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.25">
       <c r="A134" s="4">
         <v>43498</v>
       </c>
@@ -4052,7 +3954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.25">
       <c r="A135" s="4">
         <v>43499</v>
       </c>
@@ -4078,7 +3980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14.25">
       <c r="A136" s="4">
         <v>43500</v>
       </c>
@@ -4104,7 +4006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14.25">
       <c r="A137" s="4">
         <v>43501</v>
       </c>
@@ -4130,7 +4032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="14.25">
       <c r="A138" s="4">
         <v>43502</v>
       </c>
@@ -4156,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14.25">
       <c r="A139" s="4">
         <v>43503</v>
       </c>
@@ -4182,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14.25">
       <c r="A140" s="4">
         <v>43504</v>
       </c>
@@ -4208,7 +4110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14.25">
       <c r="A141" s="4">
         <v>43505</v>
       </c>
@@ -4234,7 +4136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="14.25">
       <c r="A142" s="4">
         <v>43506</v>
       </c>
@@ -4260,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="14.25">
       <c r="A143" s="4">
         <v>43507</v>
       </c>
@@ -4286,7 +4188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="14.25">
       <c r="A144" s="4">
         <v>43508</v>
       </c>
@@ -4312,7 +4214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="14.25">
       <c r="A145" s="4">
         <v>43509</v>
       </c>
@@ -4338,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="14.25">
       <c r="A146" s="4">
         <v>43510</v>
       </c>
@@ -4364,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="14.25">
       <c r="A147" s="4">
         <v>43511</v>
       </c>
@@ -4390,7 +4292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="14.25">
       <c r="A148" s="4">
         <v>43512</v>
       </c>
@@ -4416,7 +4318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="14.25">
       <c r="A149" s="4">
         <v>43513</v>
       </c>
@@ -4442,7 +4344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="14.25">
       <c r="A150" s="4">
         <v>43514</v>
       </c>
@@ -4468,7 +4370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="14.25">
       <c r="A151" s="4">
         <v>43515</v>
       </c>
@@ -4494,7 +4396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="14.25">
       <c r="A152" s="4">
         <v>43516</v>
       </c>
@@ -4520,7 +4422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="14.25">
       <c r="A153" s="4">
         <v>43517</v>
       </c>
@@ -4546,7 +4448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="14.25">
       <c r="A154" s="4">
         <v>43518</v>
       </c>
@@ -4572,7 +4474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="14.25">
       <c r="A155" s="4">
         <v>43519</v>
       </c>
@@ -4598,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="14.25">
       <c r="A156" s="4">
         <v>43520</v>
       </c>
@@ -4624,7 +4526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="14.25">
       <c r="A157" s="4">
         <v>43521</v>
       </c>
@@ -4650,7 +4552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="14.25">
       <c r="A158" s="4">
         <v>43522</v>
       </c>
@@ -4676,7 +4578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="14.25">
       <c r="A159" s="4">
         <v>43523</v>
       </c>
@@ -4702,7 +4604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="14.25">
       <c r="A160" s="4">
         <v>43524</v>
       </c>
@@ -4728,7 +4630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="14.25">
       <c r="A161" s="4">
         <v>43525</v>
       </c>
@@ -4754,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="14.25">
       <c r="A162" s="4">
         <v>43526</v>
       </c>
@@ -4780,7 +4682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="14.25">
       <c r="A163" s="4">
         <v>43527</v>
       </c>
@@ -4806,7 +4708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="14.25">
       <c r="A164" s="4">
         <v>43528</v>
       </c>
@@ -4832,7 +4734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="14.25">
       <c r="A165" s="4">
         <v>43529</v>
       </c>
@@ -4858,7 +4760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="14.25">
       <c r="A166" s="4">
         <v>43530</v>
       </c>
@@ -4884,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="14.25">
       <c r="A167" s="4">
         <v>43531</v>
       </c>
@@ -4910,7 +4812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="14.25">
       <c r="A168" s="4">
         <v>43532</v>
       </c>
@@ -4936,7 +4838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="14.25">
       <c r="A169" s="4">
         <v>43533</v>
       </c>
@@ -4962,7 +4864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="14.25">
       <c r="A170" s="4">
         <v>43534</v>
       </c>
@@ -4988,7 +4890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="14.25">
       <c r="A171" s="4">
         <v>43535</v>
       </c>
@@ -5014,7 +4916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="14.25">
       <c r="A172" s="4">
         <v>43536</v>
       </c>
@@ -5040,7 +4942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="14.25">
       <c r="A173" s="4">
         <v>43537</v>
       </c>
@@ -5066,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="14.25">
       <c r="A174" s="4">
         <v>43538</v>
       </c>
@@ -5092,7 +4994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="14.25">
       <c r="A175" s="4">
         <v>43539</v>
       </c>
@@ -5118,7 +5020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="14.25">
       <c r="A176" s="4">
         <v>43540</v>
       </c>
@@ -5144,7 +5046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="14.25">
       <c r="A177" s="4">
         <v>43541</v>
       </c>
@@ -5170,7 +5072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="14.25">
       <c r="A178" s="4">
         <v>43542</v>
       </c>
@@ -5196,7 +5098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="14.25">
       <c r="A179" s="4">
         <v>43543</v>
       </c>
@@ -5222,7 +5124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="14.25">
       <c r="A180" s="4">
         <v>43544</v>
       </c>
@@ -5248,7 +5150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="14.25">
       <c r="A181" s="4">
         <v>43545</v>
       </c>
@@ -5274,7 +5176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="14.25">
       <c r="A182" s="4">
         <v>43546</v>
       </c>
@@ -5300,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="14.25">
       <c r="A183" s="4">
         <v>43547</v>
       </c>
@@ -5326,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="14.25">
       <c r="A184" s="4">
         <v>43548</v>
       </c>
@@ -5352,7 +5254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="14.25">
       <c r="A185" s="4">
         <v>43549</v>
       </c>
@@ -5378,7 +5280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="14.25">
       <c r="A186" s="4">
         <v>43550</v>
       </c>
@@ -5404,7 +5306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="14.25">
       <c r="A187" s="4">
         <v>43551</v>
       </c>
@@ -5430,7 +5332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="14.25">
       <c r="A188" s="4">
         <v>43552</v>
       </c>
@@ -5456,7 +5358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="14.25">
       <c r="A189" s="4">
         <v>43553</v>
       </c>
@@ -5482,7 +5384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="14.25">
       <c r="A190" s="4">
         <v>43554</v>
       </c>
@@ -5508,7 +5410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="14.25">
       <c r="A191" s="4">
         <v>43555</v>
       </c>
@@ -5534,7 +5436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="14.25">
       <c r="A192" s="4">
         <v>43556</v>
       </c>
@@ -5560,7 +5462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="14.25">
       <c r="A193" s="4">
         <v>43557</v>
       </c>
@@ -5586,7 +5488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="14.25">
       <c r="A194" s="4">
         <v>43558</v>
       </c>
@@ -5612,7 +5514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="14.25">
       <c r="A195" s="4">
         <v>43559</v>
       </c>
@@ -5638,7 +5540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="14.25">
       <c r="A196" s="4">
         <v>43560</v>
       </c>
@@ -5664,7 +5566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="14.25">
       <c r="A197" s="4">
         <v>43561</v>
       </c>
@@ -5690,7 +5592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="14.25">
       <c r="A198" s="4">
         <v>43562</v>
       </c>
@@ -5716,7 +5618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="14.25">
       <c r="A199" s="4">
         <v>43563</v>
       </c>
@@ -5742,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="14.25">
       <c r="A200" s="4">
         <v>43564</v>
       </c>
@@ -5768,7 +5670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="14.25">
       <c r="A201" s="4">
         <v>43565</v>
       </c>
@@ -5794,7 +5696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="14.25">
       <c r="A202" s="4">
         <v>43566</v>
       </c>
@@ -5820,7 +5722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="14.25">
       <c r="A203" s="4">
         <v>43567</v>
       </c>
@@ -5846,7 +5748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="14.25">
       <c r="A204" s="4">
         <v>43568</v>
       </c>
@@ -5872,7 +5774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="14.25">
       <c r="A205" s="4">
         <v>43569</v>
       </c>
@@ -5898,7 +5800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="14.25">
       <c r="A206" s="4">
         <v>43570</v>
       </c>
@@ -5924,7 +5826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="14.25">
       <c r="A207" s="4">
         <v>43571</v>
       </c>
@@ -5950,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="14.25">
       <c r="A208" s="4">
         <v>43572</v>
       </c>
@@ -5976,7 +5878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="14.25">
       <c r="A209" s="4">
         <v>43573</v>
       </c>
@@ -6002,7 +5904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="14.25">
       <c r="A210" s="4">
         <v>43574</v>
       </c>
@@ -6028,7 +5930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="14.25">
       <c r="A211" s="4">
         <v>43575</v>
       </c>
@@ -6054,7 +5956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="14.25">
       <c r="A212" s="4">
         <v>43576</v>
       </c>
@@ -6080,7 +5982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="14.25">
       <c r="A213" s="4">
         <v>43577</v>
       </c>
@@ -6106,7 +6008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="14.25">
       <c r="A214" s="4">
         <v>43578</v>
       </c>
@@ -6132,7 +6034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="14.25">
       <c r="A215" s="4">
         <v>43579</v>
       </c>
@@ -6158,7 +6060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="14.25">
       <c r="A216" s="4">
         <v>43580</v>
       </c>
@@ -6184,7 +6086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="14.25">
       <c r="A217" s="4">
         <v>43581</v>
       </c>
@@ -6210,7 +6112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="14.25">
       <c r="A218" s="4">
         <v>43582</v>
       </c>
@@ -6236,7 +6138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="14.25">
       <c r="A219" s="4">
         <v>43583</v>
       </c>
@@ -6262,7 +6164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="14.25">
       <c r="A220" s="4">
         <v>43584</v>
       </c>
@@ -6288,7 +6190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="14.25">
       <c r="A221" s="4">
         <v>43585</v>
       </c>
@@ -6314,7 +6216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="14.25">
       <c r="A222" s="4">
         <v>43586</v>
       </c>
@@ -6340,7 +6242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="14.25">
       <c r="A223" s="4">
         <v>43587</v>
       </c>
@@ -6366,7 +6268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="14.25">
       <c r="A224" s="4">
         <v>43588</v>
       </c>
@@ -6392,7 +6294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="14.25">
       <c r="A225" s="4">
         <v>43589</v>
       </c>
@@ -6418,7 +6320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="14.25">
       <c r="A226" s="4">
         <v>43590</v>
       </c>
@@ -6444,7 +6346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="14.25">
       <c r="A227" s="4">
         <v>43591</v>
       </c>
@@ -6470,7 +6372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="14.25">
       <c r="A228" s="4">
         <v>43592</v>
       </c>
@@ -6496,7 +6398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="14.25">
       <c r="A229" s="4">
         <v>43593</v>
       </c>
@@ -6522,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="14.25">
       <c r="A230" s="4">
         <v>43594</v>
       </c>
@@ -6548,7 +6450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="14.25">
       <c r="A231" s="4">
         <v>43595</v>
       </c>
@@ -6574,7 +6476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="14.25">
       <c r="A232" s="4">
         <v>43596</v>
       </c>
@@ -6600,7 +6502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="14.25">
       <c r="A233" s="4">
         <v>43597</v>
       </c>
@@ -6626,7 +6528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="14.25">
       <c r="A234" s="4">
         <v>43598</v>
       </c>
@@ -6652,7 +6554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="14.25">
       <c r="A235" s="4">
         <v>43599</v>
       </c>
@@ -6678,7 +6580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="14.25">
       <c r="A236" s="4">
         <v>43600</v>
       </c>
@@ -6704,7 +6606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="14.25">
       <c r="A237" s="4">
         <v>43601</v>
       </c>
@@ -6730,7 +6632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="14.25">
       <c r="A238" s="4">
         <v>43602</v>
       </c>
@@ -6756,7 +6658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="14.25">
       <c r="A239" s="4">
         <v>43603</v>
       </c>
@@ -6782,7 +6684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="14.25">
       <c r="A240" s="4">
         <v>43604</v>
       </c>
@@ -6808,7 +6710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="14.25">
       <c r="A241" s="4">
         <v>43605</v>
       </c>
@@ -6834,7 +6736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="14.25">
       <c r="A242" s="4">
         <v>43606</v>
       </c>
@@ -6860,7 +6762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="14.25">
       <c r="A243" s="4">
         <v>43607</v>
       </c>
@@ -6886,7 +6788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="14.25">
       <c r="A244" s="4">
         <v>43608</v>
       </c>
@@ -6912,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="14.25">
       <c r="A245" s="4">
         <v>43609</v>
       </c>
@@ -6938,7 +6840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="14.25">
       <c r="A246" s="4">
         <v>43610</v>
       </c>
@@ -6964,7 +6866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="14.25">
       <c r="A247" s="4">
         <v>43611</v>
       </c>
@@ -6990,7 +6892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="14.25">
       <c r="A248" s="4">
         <v>43612</v>
       </c>
@@ -7016,7 +6918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="14.25">
       <c r="A249" s="4">
         <v>43613</v>
       </c>
@@ -7042,7 +6944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="14.25">
       <c r="A250" s="4">
         <v>43614</v>
       </c>
@@ -7068,7 +6970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="14.25">
       <c r="A251" s="4">
         <v>43615</v>
       </c>
@@ -7094,7 +6996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="14.25">
       <c r="A252" s="4">
         <v>43616</v>
       </c>
@@ -7120,7 +7022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="14.25">
       <c r="A253" s="4">
         <v>43617</v>
       </c>
@@ -7146,7 +7048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="14.25">
       <c r="A254" s="4">
         <v>43618</v>
       </c>
@@ -7172,7 +7074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="14.25">
       <c r="A255" s="4">
         <v>43619</v>
       </c>
@@ -7198,7 +7100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="14.25">
       <c r="A256" s="4">
         <v>43620</v>
       </c>
@@ -7224,7 +7126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="14.25">
       <c r="A257" s="4">
         <v>43621</v>
       </c>
@@ -7250,7 +7152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="14.25">
       <c r="A258" s="4">
         <v>43622</v>
       </c>
@@ -7276,7 +7178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="14.25">
       <c r="A259" s="4">
         <v>43623</v>
       </c>
@@ -7302,7 +7204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="14.25">
       <c r="A260" s="4">
         <v>43624</v>
       </c>
@@ -7328,7 +7230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="14.25">
       <c r="A261" s="4">
         <v>43625</v>
       </c>
@@ -7354,7 +7256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="14.25">
       <c r="A262" s="4">
         <v>43626</v>
       </c>
@@ -7380,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="14.25">
       <c r="A263" s="4">
         <v>43627</v>
       </c>
@@ -7406,7 +7308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="14.25">
       <c r="A264" s="4">
         <v>43628</v>
       </c>
@@ -7432,7 +7334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="14.25">
       <c r="A265" s="4">
         <v>43629</v>
       </c>
@@ -7458,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="14.25">
       <c r="A266" s="4">
         <v>43630</v>
       </c>
@@ -7484,7 +7386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="14.25">
       <c r="A267" s="4">
         <v>43631</v>
       </c>
@@ -7510,7 +7412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="14.25">
       <c r="A268" s="4">
         <v>43632</v>
       </c>
@@ -7536,7 +7438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="14.25">
       <c r="A269" s="4">
         <v>43633</v>
       </c>
@@ -7562,7 +7464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="14.25">
       <c r="A270" s="4">
         <v>43634</v>
       </c>
@@ -7588,7 +7490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="14.25">
       <c r="A271" s="4">
         <v>43635</v>
       </c>
@@ -7614,7 +7516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="14.25">
       <c r="A272" s="4">
         <v>43636</v>
       </c>
@@ -7640,7 +7542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="14.25">
       <c r="A273" s="4">
         <v>43637</v>
       </c>
@@ -7666,7 +7568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="14.25">
       <c r="A274" s="4">
         <v>43638</v>
       </c>
@@ -7692,7 +7594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="14.25">
       <c r="A275" s="4">
         <v>43639</v>
       </c>
@@ -7718,7 +7620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="14.25">
       <c r="A276" s="4">
         <v>43640</v>
       </c>
@@ -7744,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="14.25">
       <c r="A277" s="4">
         <v>43641</v>
       </c>
@@ -7770,7 +7672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="14.25">
       <c r="A278" s="4">
         <v>43642</v>
       </c>
@@ -7796,7 +7698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="14.25">
       <c r="A279" s="4">
         <v>43643</v>
       </c>
@@ -7822,7 +7724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="14.25">
       <c r="A280" s="4">
         <v>43644</v>
       </c>
@@ -7848,7 +7750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="14.25">
       <c r="A281" s="4">
         <v>43645</v>
       </c>
@@ -7874,7 +7776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="14.25">
       <c r="A282" s="4">
         <v>43646</v>
       </c>
@@ -7900,7 +7802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="14.25">
       <c r="A283" s="4">
         <v>43647</v>
       </c>
@@ -7926,7 +7828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="14.25">
       <c r="A284" s="4">
         <v>43648</v>
       </c>
@@ -7952,7 +7854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="14.25">
       <c r="A285" s="4">
         <v>43649</v>
       </c>
@@ -7978,7 +7880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="14.25">
       <c r="A286" s="4">
         <v>43650</v>
       </c>
@@ -8004,7 +7906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="14.25">
       <c r="A287" s="4">
         <v>43651</v>
       </c>
@@ -8030,7 +7932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="14.25">
       <c r="A288" s="4">
         <v>43652</v>
       </c>
@@ -8056,7 +7958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="14.25">
       <c r="A289" s="4">
         <v>43653</v>
       </c>
@@ -8082,7 +7984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="14.25">
       <c r="A290" s="4">
         <v>43654</v>
       </c>
@@ -8108,7 +8010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="14.25">
       <c r="A291" s="4">
         <v>43655</v>
       </c>
@@ -8134,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="14.25">
       <c r="A292" s="4">
         <v>43656</v>
       </c>
@@ -8160,7 +8062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="14.25">
       <c r="A293" s="4">
         <v>43657</v>
       </c>
@@ -8186,7 +8088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="14.25">
       <c r="A294" s="4">
         <v>43658</v>
       </c>
@@ -8212,7 +8114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="14.25">
       <c r="A295" s="4">
         <v>43659</v>
       </c>
@@ -8238,7 +8140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="14.25">
       <c r="A296" s="4">
         <v>43660</v>
       </c>
@@ -8264,7 +8166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="14.25">
       <c r="A297" s="4">
         <v>43661</v>
       </c>
@@ -8290,7 +8192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="14.25">
       <c r="A298" s="4">
         <v>43662</v>
       </c>
@@ -8316,7 +8218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="14.25">
       <c r="A299" s="4">
         <v>43663</v>
       </c>
@@ -8342,7 +8244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="14.25">
       <c r="A300" s="4">
         <v>43664</v>
       </c>
@@ -8368,7 +8270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="14.25">
       <c r="A301" s="4">
         <v>43665</v>
       </c>
@@ -8394,7 +8296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="14.25">
       <c r="A302" s="4">
         <v>43666</v>
       </c>
@@ -8420,7 +8322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="14.25">
       <c r="A303" s="4">
         <v>43667</v>
       </c>
@@ -8446,7 +8348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="14.25">
       <c r="A304" s="4">
         <v>43668</v>
       </c>
@@ -8472,7 +8374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="14.25">
       <c r="A305" s="4">
         <v>43669</v>
       </c>
@@ -8498,7 +8400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="14.25">
       <c r="A306" s="4">
         <v>43670</v>
       </c>
@@ -8524,7 +8426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="14.25">
       <c r="A307" s="4">
         <v>43671</v>
       </c>
@@ -8550,7 +8452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="14.25">
       <c r="A308" s="4">
         <v>43672</v>
       </c>
@@ -8576,7 +8478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="14.25">
       <c r="A309" s="4">
         <v>43673</v>
       </c>
@@ -8602,7 +8504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="14.25">
       <c r="A310" s="4">
         <v>43674</v>
       </c>
@@ -8628,7 +8530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="14.25">
       <c r="A311" s="4">
         <v>43675</v>
       </c>
@@ -8654,7 +8556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="14.25">
       <c r="A312" s="4">
         <v>43676</v>
       </c>
@@ -8680,7 +8582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="14.25">
       <c r="A313" s="4">
         <v>43677</v>
       </c>
@@ -8706,7 +8608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="14.25">
       <c r="A314" s="4">
         <v>43678</v>
       </c>
@@ -8732,7 +8634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="14.25">
       <c r="A315" s="4">
         <v>43679</v>
       </c>
@@ -8758,7 +8660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="14.25">
       <c r="A316" s="4">
         <v>43680</v>
       </c>
@@ -8784,7 +8686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="14.25">
       <c r="A317" s="4">
         <v>43681</v>
       </c>
@@ -8810,7 +8712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="14.25">
       <c r="A318" s="4">
         <v>43682</v>
       </c>
@@ -8836,7 +8738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="14.25">
       <c r="A319" s="4">
         <v>43683</v>
       </c>
@@ -8862,7 +8764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="14.25">
       <c r="A320" s="4">
         <v>43684</v>
       </c>
@@ -8888,7 +8790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="14.25">
       <c r="A321" s="4">
         <v>43685</v>
       </c>
@@ -8914,7 +8816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="14.25">
       <c r="A322" s="4">
         <v>43686</v>
       </c>
@@ -8940,7 +8842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="14.25">
       <c r="A323" s="4">
         <v>43687</v>
       </c>
@@ -8966,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="14.25">
       <c r="A324" s="4">
         <v>43688</v>
       </c>
@@ -8992,7 +8894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="14.25">
       <c r="A325" s="4">
         <v>43689</v>
       </c>
@@ -9018,7 +8920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="14.25">
       <c r="A326" s="4">
         <v>43690</v>
       </c>
@@ -9044,7 +8946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="14.25">
       <c r="A327" s="4">
         <v>43691</v>
       </c>
@@ -9070,7 +8972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="14.25">
       <c r="A328" s="4">
         <v>43692</v>
       </c>
@@ -9096,7 +8998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="14.25">
       <c r="A329" s="4">
         <v>43693</v>
       </c>
@@ -9122,7 +9024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="14.25">
       <c r="A330" s="4">
         <v>43694</v>
       </c>
@@ -9148,7 +9050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="14.25">
       <c r="A331" s="4">
         <v>43695</v>
       </c>
@@ -9174,7 +9076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="14.25">
       <c r="A332" s="4">
         <v>43696</v>
       </c>
@@ -9200,7 +9102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="14.25">
       <c r="A333" s="4">
         <v>43697</v>
       </c>
@@ -9226,7 +9128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="14.25">
       <c r="A334" s="4">
         <v>43698</v>
       </c>
@@ -9252,7 +9154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="14.25">
       <c r="A335" s="4">
         <v>43699</v>
       </c>
@@ -9278,7 +9180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="14.25">
       <c r="A336" s="4">
         <v>43700</v>
       </c>
@@ -9304,7 +9206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="14.25">
       <c r="A337" s="4">
         <v>43701</v>
       </c>
@@ -9330,7 +9232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="14.25">
       <c r="A338" s="4">
         <v>43702</v>
       </c>
@@ -9356,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="14.25">
       <c r="A339" s="4">
         <v>43703</v>
       </c>
@@ -9382,7 +9284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="14.25">
       <c r="A340" s="4">
         <v>43704</v>
       </c>
@@ -9408,7 +9310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="14.25">
       <c r="A341" s="4">
         <v>43705</v>
       </c>
@@ -9434,7 +9336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="14.25">
       <c r="A342" s="4">
         <v>43706</v>
       </c>
@@ -9460,7 +9362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="14.25">
       <c r="A343" s="4">
         <v>43707</v>
       </c>
@@ -9486,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="14.25">
       <c r="A344" s="4">
         <v>43708</v>
       </c>
@@ -9512,7 +9414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="14.25">
       <c r="A345" s="4">
         <v>43709</v>
       </c>
@@ -9538,7 +9440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="14.25">
       <c r="A346" s="4">
         <v>43710</v>
       </c>
@@ -9564,7 +9466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="14.25">
       <c r="A347" s="4">
         <v>43711</v>
       </c>
@@ -9590,7 +9492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="14.25">
       <c r="A348" s="4">
         <v>43712</v>
       </c>
@@ -9616,7 +9518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="14.25">
       <c r="A349" s="4">
         <v>43713</v>
       </c>
@@ -9642,7 +9544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="14.25">
       <c r="A350" s="4">
         <v>43714</v>
       </c>
@@ -9668,7 +9570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="14.25">
       <c r="A351" s="4">
         <v>43715</v>
       </c>
@@ -9694,7 +9596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="14.25">
       <c r="A352" s="4">
         <v>43716</v>
       </c>
@@ -9720,7 +9622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="14.25">
       <c r="A353" s="4">
         <v>43717</v>
       </c>
@@ -9746,7 +9648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="14.25">
       <c r="A354" s="4">
         <v>43718</v>
       </c>
@@ -9772,7 +9674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="14.25">
       <c r="A355" s="4">
         <v>43719</v>
       </c>
@@ -9798,7 +9700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="14.25">
       <c r="A356" s="4">
         <v>43720</v>
       </c>
@@ -9824,7 +9726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="14.25">
       <c r="A357" s="4">
         <v>43721</v>
       </c>
@@ -9850,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="14.25">
       <c r="A358" s="4">
         <v>43722</v>
       </c>
@@ -9876,7 +9778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="14.25">
       <c r="A359" s="4">
         <v>43723</v>
       </c>
@@ -9902,7 +9804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="14.25">
       <c r="A360" s="4">
         <v>43724</v>
       </c>
@@ -9928,7 +9830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="14.25">
       <c r="A361" s="4">
         <v>43725</v>
       </c>
@@ -9954,7 +9856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="14.25">
       <c r="A362" s="4">
         <v>43726</v>
       </c>
@@ -9980,7 +9882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="14.25">
       <c r="A363" s="4">
         <v>43727</v>
       </c>
@@ -10006,7 +9908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="14.25">
       <c r="A364" s="4">
         <v>43728</v>
       </c>
@@ -10032,7 +9934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="14.25">
       <c r="A365" s="4">
         <v>43729</v>
       </c>
@@ -10058,7 +9960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="14.25">
       <c r="A366" s="4">
         <v>43730</v>
       </c>
@@ -10084,7 +9986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="14.25">
       <c r="A367" s="4">
         <v>43731</v>
       </c>
@@ -10110,7 +10012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="14.25">
       <c r="A368" s="4">
         <v>43732</v>
       </c>
@@ -10136,7 +10038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="14.25">
       <c r="A369" s="4">
         <v>43733</v>
       </c>
@@ -10162,7 +10064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="14.25">
       <c r="A370" s="4">
         <v>43734</v>
       </c>
@@ -10188,7 +10090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="14.25">
       <c r="A371" s="4">
         <v>43735</v>
       </c>
@@ -10214,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="14.25">
       <c r="A372" s="4">
         <v>43736</v>
       </c>
@@ -10240,7 +10142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="14.25">
       <c r="A373" s="4">
         <v>43737</v>
       </c>
@@ -10266,7 +10168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="14.25">
       <c r="A374" s="4">
         <v>43738</v>
       </c>
@@ -10292,7 +10194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="14.25">
       <c r="A375" s="4">
         <v>43739</v>
       </c>
@@ -10318,7 +10220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="14.25">
       <c r="A376" s="4">
         <v>43740</v>
       </c>
@@ -10344,7 +10246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="14.25">
       <c r="A377" s="4">
         <v>43741</v>
       </c>
@@ -10370,7 +10272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="14.25">
       <c r="A378" s="4">
         <v>43742</v>
       </c>
@@ -10396,7 +10298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="14.25">
       <c r="A379" s="4">
         <v>43743</v>
       </c>
@@ -10422,7 +10324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="14.25">
       <c r="A380" s="4">
         <v>43744</v>
       </c>
@@ -10448,7 +10350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="14.25">
       <c r="A381" s="4">
         <v>43745</v>
       </c>
@@ -10474,7 +10376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="14.25">
       <c r="A382" s="4">
         <v>43746</v>
       </c>
@@ -10500,7 +10402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="14.25">
       <c r="A383" s="4">
         <v>43747</v>
       </c>
@@ -10526,7 +10428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="14.25">
       <c r="A384" s="4">
         <v>43748</v>
       </c>
@@ -10552,7 +10454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="14.25">
       <c r="A385" s="4">
         <v>43749</v>
       </c>
@@ -10578,7 +10480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="14.25">
       <c r="A386" s="4">
         <v>43750</v>
       </c>
@@ -10604,7 +10506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="14.25">
       <c r="A387" s="4">
         <v>43751</v>
       </c>
@@ -10630,7 +10532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="14.25">
       <c r="A388" s="4">
         <v>43752</v>
       </c>
@@ -10656,7 +10558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="14.25">
       <c r="A389" s="4">
         <v>43753</v>
       </c>
@@ -10682,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="14.25">
       <c r="A390" s="4">
         <v>43754</v>
       </c>
@@ -10708,7 +10610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="14.25">
       <c r="A391" s="4">
         <v>43755</v>
       </c>
@@ -10734,7 +10636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="14.25">
       <c r="A392" s="4">
         <v>43756</v>
       </c>
@@ -10760,7 +10662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="14.25">
       <c r="A393" s="4">
         <v>43757</v>
       </c>
@@ -10786,7 +10688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="14.25">
       <c r="A394" s="4">
         <v>43758</v>
       </c>
@@ -10812,7 +10714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="14.25">
       <c r="A395" s="4">
         <v>43759</v>
       </c>
@@ -10838,7 +10740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="14.25">
       <c r="A396" s="4">
         <v>43760</v>
       </c>
@@ -10864,7 +10766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="14.25">
       <c r="A397" s="4">
         <v>43761</v>
       </c>
@@ -10890,7 +10792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="14.25">
       <c r="A398" s="4">
         <v>43762</v>
       </c>
@@ -10916,7 +10818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="14.25">
       <c r="A399" s="4">
         <v>43763</v>
       </c>
@@ -10942,7 +10844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="14.25">
       <c r="A400" s="4">
         <v>43764</v>
       </c>
@@ -10968,7 +10870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="14.25">
       <c r="A401" s="4">
         <v>43765</v>
       </c>
@@ -10994,7 +10896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="14.25">
       <c r="A402" s="4">
         <v>43766</v>
       </c>
@@ -11020,7 +10922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="14.25">
       <c r="A403" s="4">
         <v>43767</v>
       </c>
@@ -11046,7 +10948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="14.25">
       <c r="A404" s="4">
         <v>43768</v>
       </c>
@@ -11072,7 +10974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="14.25">
       <c r="A405" s="4">
         <v>43769</v>
       </c>
@@ -11098,7 +11000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="14.25">
       <c r="A406" s="4">
         <v>43770</v>
       </c>
@@ -11124,7 +11026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="14.25">
       <c r="A407" s="4">
         <v>43771</v>
       </c>
@@ -11150,7 +11052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="14.25">
       <c r="A408" s="4">
         <v>43772</v>
       </c>
@@ -11176,7 +11078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="14.25">
       <c r="A409" s="4">
         <v>43773</v>
       </c>
@@ -11202,7 +11104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="14.25">
       <c r="A410" s="4">
         <v>43774</v>
       </c>
@@ -11228,7 +11130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="14.25">
       <c r="A411" s="4">
         <v>43775</v>
       </c>
@@ -11254,7 +11156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="14.25">
       <c r="A412" s="4">
         <v>43776</v>
       </c>
@@ -11280,7 +11182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="14.25">
       <c r="A413" s="4">
         <v>43777</v>
       </c>
@@ -11306,7 +11208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="14.25">
       <c r="A414" s="4">
         <v>43778</v>
       </c>
@@ -11332,7 +11234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="14.25">
       <c r="A415" s="4">
         <v>43779</v>
       </c>
@@ -11358,7 +11260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="14.25">
       <c r="A416" s="4">
         <v>43780</v>
       </c>
@@ -11384,7 +11286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="14.25">
       <c r="A417" s="4">
         <v>43781</v>
       </c>
@@ -11410,7 +11312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="14.25">
       <c r="A418" s="4">
         <v>43782</v>
       </c>
@@ -11436,7 +11338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="14.25">
       <c r="A419" s="4">
         <v>43783</v>
       </c>
@@ -11462,7 +11364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="14.25">
       <c r="A420" s="4">
         <v>43784</v>
       </c>
@@ -11488,7 +11390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="14.25">
       <c r="A421" s="4">
         <v>43785</v>
       </c>
@@ -11514,7 +11416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="14.25">
       <c r="A422" s="4">
         <v>43786</v>
       </c>
@@ -11540,7 +11442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="14.25">
       <c r="A423" s="4">
         <v>43787</v>
       </c>
@@ -11566,7 +11468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="14.25">
       <c r="A424" s="4">
         <v>43788</v>
       </c>
@@ -11592,7 +11494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="14.25">
       <c r="A425" s="4">
         <v>43789</v>
       </c>
@@ -11618,7 +11520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="14.25">
       <c r="A426" s="4">
         <v>43790</v>
       </c>
@@ -11644,7 +11546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="14.25">
       <c r="A427" s="4">
         <v>43791</v>
       </c>
@@ -11670,7 +11572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="14.25">
       <c r="A428" s="4">
         <v>43792</v>
       </c>
@@ -11696,7 +11598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="14.25">
       <c r="A429" s="4">
         <v>43793</v>
       </c>
@@ -11722,7 +11624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="14.25">
       <c r="A430" s="4">
         <v>43794</v>
       </c>
@@ -11748,7 +11650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="14.25">
       <c r="A431" s="4">
         <v>43795</v>
       </c>
